--- a/data/231212_pyc_HANDMIX/genex_mt_231121.xlsx
+++ b/data/231212_pyc_HANDMIX/genex_mt_231121.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/GitHub/WHISPR/Experiments/231212_pyc_HANDMIX/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\ECFERS\data\231212_pyc_HANDMIX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921998CA-31B0-F34A-88B5-7EC54F444DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF498A7-4251-4328-A085-60CC943BEAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="29340" windowHeight="16020" xr2:uid="{85595F43-DD4E-0A45-B616-9F7A51F40558}"/>
+    <workbookView xWindow="15975" yWindow="1785" windowWidth="19035" windowHeight="19155" xr2:uid="{85595F43-DD4E-0A45-B616-9F7A51F40558}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
   <si>
     <t>sds</t>
   </si>
@@ -126,13 +127,22 @@
   </si>
   <si>
     <t>TOTAL VOL</t>
+  </si>
+  <si>
+    <t>EC11137</t>
+  </si>
+  <si>
+    <t>EC117984</t>
+  </si>
+  <si>
+    <t>EC6411</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -168,8 +178,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4D5156"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,8 +210,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -206,11 +240,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -226,6 +269,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,32 +591,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9378B801-CA57-D043-87AC-05445D6D4499}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="143" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
+      <c r="D1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -584,7 +635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -604,7 +655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -618,7 +669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -632,7 +683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -646,7 +697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -660,7 +711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -674,502 +725,517 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12">
-        <v>50</v>
-      </c>
-      <c r="E12">
-        <v>56.049999999999898</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <f>10*F12/D12</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13">
-        <v>80</v>
-      </c>
-      <c r="E13">
-        <v>38.889999999999702</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
-      <c r="G13" s="3">
-        <f>10*F13/D13</f>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14">
-        <v>82.986043809999998</v>
-      </c>
-      <c r="E14">
-        <v>47.273999999999504</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <f t="shared" ref="G14:G21" si="0">10*F14/D14</f>
-        <v>0.12050218977657756</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15">
-        <v>20</v>
-      </c>
-      <c r="E15">
-        <v>60</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>23.54</v>
-      </c>
-      <c r="E16">
-        <v>58.149999999999899</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="0"/>
-        <v>0.42480883602378933</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="5">
-        <v>50</v>
-      </c>
-      <c r="E17" s="5">
-        <v>51.115000000000002</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18">
-        <v>72.5</v>
-      </c>
-      <c r="E18">
-        <v>54.65</v>
-      </c>
-      <c r="F18">
-        <v>10</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" si="0"/>
-        <v>1.3793103448275863</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19">
-        <v>100</v>
-      </c>
-      <c r="E19">
-        <v>54.9</v>
-      </c>
-      <c r="F19">
-        <v>10</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <v>105.4</v>
-      </c>
-      <c r="E20">
-        <v>60</v>
-      </c>
-      <c r="F20">
-        <v>10</v>
-      </c>
-      <c r="G20" s="3">
-        <f t="shared" si="0"/>
-        <v>0.94876660341555974</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>172.3</v>
-      </c>
-      <c r="E21">
-        <v>58.5</v>
-      </c>
-      <c r="F21">
-        <v>10</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" si="0"/>
-        <v>0.5803830528148578</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="6">
-        <f>G17*2</f>
-        <v>0.4</v>
-      </c>
-      <c r="C24" s="6">
-        <f>G12*2</f>
-        <v>0.4</v>
-      </c>
-      <c r="D24" s="6">
-        <f>G16*2</f>
-        <v>0.84961767204757865</v>
-      </c>
-      <c r="E24" s="6">
-        <f>G14*2</f>
-        <v>0.24100437955315512</v>
-      </c>
-      <c r="F24" s="6">
-        <f>G13*2</f>
-        <v>1.25</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6">
-        <f>SUM(B24:K24)</f>
-        <v>3.1406220516007339</v>
-      </c>
-      <c r="M24" s="6">
-        <f>5-L24</f>
-        <v>1.8593779483992661</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="C25" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6">
-        <v>4</v>
-      </c>
-      <c r="L25" s="6">
-        <f t="shared" ref="L25:L29" si="1">SUM(B25:K25)</f>
-        <v>4.8</v>
-      </c>
-      <c r="M25" s="6">
-        <f>5-L25</f>
-        <v>0.20000000000000018</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="C26" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="8">
-        <f>G19</f>
-        <v>1</v>
-      </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6">
-        <f t="shared" si="1"/>
-        <v>1.8</v>
-      </c>
-      <c r="M26" s="6">
-        <f>2.5-L26</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="8">
-        <f>G17</f>
-        <v>0.2</v>
-      </c>
-      <c r="C27" s="8">
-        <f>G12</f>
-        <v>0.2</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="8">
-        <f>G18</f>
-        <v>1.3793103448275863</v>
-      </c>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6">
-        <f t="shared" si="1"/>
-        <v>1.7793103448275862</v>
-      </c>
-      <c r="M27" s="6">
-        <f t="shared" ref="M27:M29" si="2">2.5-L27</f>
-        <v>0.72068965517241379</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="C28" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="8">
-        <f>G21</f>
-        <v>0.5803830528148578</v>
-      </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6">
-        <f t="shared" si="1"/>
-        <v>0.98038305281485782</v>
-      </c>
-      <c r="M28" s="6">
-        <f t="shared" si="2"/>
-        <v>1.5196169471851422</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="C29" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="8">
-        <f>G20</f>
-        <v>0.94876660341555974</v>
-      </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6">
-        <f t="shared" si="1"/>
-        <v>1.3487666034155597</v>
-      </c>
-      <c r="M29" s="6">
-        <f t="shared" si="2"/>
-        <v>1.1512333965844403</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A9:F9"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAD03E6-6502-4F8B-85B1-7561F8CE6E98}">
+  <dimension ref="A2:M22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>56.049999999999898</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" ref="G5:G14" si="0">10*F5/D5</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>80</v>
+      </c>
+      <c r="E6">
+        <v>38.889999999999702</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>82.986043809999998</v>
+      </c>
+      <c r="E7">
+        <v>47.273999999999504</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.12050218977657756</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>60</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>23.54</v>
+      </c>
+      <c r="E9">
+        <v>58.149999999999899</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.42480883602378933</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="5">
+        <v>50</v>
+      </c>
+      <c r="E10" s="5">
+        <v>51.115000000000002</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>72.5</v>
+      </c>
+      <c r="E11">
+        <v>54.65</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3793103448275863</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>54.9</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>105.4</v>
+      </c>
+      <c r="E13">
+        <v>60</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94876660341555974</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>172.3</v>
+      </c>
+      <c r="E14">
+        <v>58.5</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5803830528148578</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="6">
+        <f>G10*2</f>
+        <v>0.4</v>
+      </c>
+      <c r="C17" s="6">
+        <f>G5*2</f>
+        <v>0.4</v>
+      </c>
+      <c r="D17" s="6">
+        <f>G9*2</f>
+        <v>0.84961767204757865</v>
+      </c>
+      <c r="E17" s="6">
+        <f>G7*2</f>
+        <v>0.24100437955315512</v>
+      </c>
+      <c r="F17" s="6">
+        <f>G6*2</f>
+        <v>1.25</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6">
+        <f t="shared" ref="L17:L22" si="1">SUM(B17:K17)</f>
+        <v>3.1406220516007339</v>
+      </c>
+      <c r="M17" s="6">
+        <f>5-L17</f>
+        <v>1.8593779483992661</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6">
+        <v>4</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="1"/>
+        <v>4.8</v>
+      </c>
+      <c r="M18" s="6">
+        <f>5-L18</f>
+        <v>0.20000000000000018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="8">
+        <f>G12</f>
+        <v>1</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="M19" s="6">
+        <f>2.5-L19</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="8">
+        <f>G10</f>
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="8">
+        <f>G5</f>
+        <v>0.2</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="8">
+        <f>G11</f>
+        <v>1.3793103448275863</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6">
+        <f t="shared" si="1"/>
+        <v>1.7793103448275862</v>
+      </c>
+      <c r="M20" s="6">
+        <f>2.5-L20</f>
+        <v>0.72068965517241379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="8">
+        <f>G14</f>
+        <v>0.5803830528148578</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6">
+        <f t="shared" si="1"/>
+        <v>0.98038305281485782</v>
+      </c>
+      <c r="M21" s="6">
+        <f>2.5-L21</f>
+        <v>1.5196169471851422</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="8">
+        <f>G13</f>
+        <v>0.94876660341555974</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6">
+        <f t="shared" si="1"/>
+        <v>1.3487666034155597</v>
+      </c>
+      <c r="M22" s="6">
+        <f>2.5-L22</f>
+        <v>1.1512333965844403</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>